--- a/target/classes/cardiac_diseases/test.drl.xlsx
+++ b/target/classes/cardiac_diseases/test.drl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSS\Cardiac_diseases\src\main\resources\cardiac_diseases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4EAB62-3FA2-4EF8-983B-D289F842FD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231EC6D4-E068-4133-BC62-12A4C24D3A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>symptom</t>
   </si>
   <si>
-    <t>$patient:Patient</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>$param</t>
+  </si>
+  <si>
+    <t>30, "other"</t>
   </si>
   <si>
     <r>
@@ -114,7 +114,7 @@
     </r>
   </si>
   <si>
-    <t>30, "other"</t>
+    <t>$patient: Patient</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -665,20 +665,20 @@
     <row r="3" spans="1:4" ht="16.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="16.2">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -698,7 +698,7 @@
     </row>
     <row r="7" spans="1:4" ht="16.2">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>2</v>
@@ -711,7 +711,7 @@
     <row r="8" spans="1:4" ht="16.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -719,7 +719,7 @@
     <row r="9" spans="1:4" ht="64.8">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>17</v>
@@ -741,10 +741,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2"/>
     </row>
